--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="155">
   <si>
     <t>土地坐落</t>
   </si>
@@ -342,6 +342,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
   </si>
   <si>
     <t>穎台公司</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1960,13 +1972,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1985,13 +1997,22 @@
       <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2008,13 +2029,22 @@
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2031,13 +2061,22 @@
       <c r="G3" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2054,13 +2093,22 @@
       <c r="G4" s="2">
         <v>7320000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2076,6 +2124,15 @@
       </c>
       <c r="G5" s="2">
         <v>300000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2096,19 +2153,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2116,22 +2173,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2139,22 +2196,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2162,22 +2219,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2195,22 +2252,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2221,19 +2278,19 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2244,19 +2301,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2264,22 +2321,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2290,19 +2347,19 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2310,22 +2367,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2336,19 +2393,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2359,19 +2416,19 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2382,19 +2439,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="157">
   <si>
     <t>土地坐落</t>
   </si>
@@ -342,6 +342,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -361,6 +364,9 @@
   </si>
   <si>
     <t>穎台公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-23</t>
@@ -1972,13 +1978,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2006,13 +2012,16 @@
       <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2030,21 +2039,24 @@
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2">
+        <v>116</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2062,21 +2074,24 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2">
+        <v>116</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2094,21 +2109,24 @@
         <v>7320000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2">
+        <v>116</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2126,12 +2144,15 @@
         <v>300000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2">
         <v>551</v>
       </c>
     </row>
@@ -2153,19 +2174,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2173,22 +2194,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2196,22 +2217,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2219,22 +2240,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2252,22 +2273,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2278,19 +2299,19 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2301,19 +2322,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2321,22 +2342,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2347,19 +2368,19 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2367,22 +2388,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2393,19 +2414,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2416,19 +2437,19 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2439,19 +2460,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="162">
   <si>
     <t>土地坐落</t>
   </si>
@@ -345,6 +345,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -354,6 +357,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -369,7 +378,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmp22571</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1978,13 +1993,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2015,13 +2030,22 @@
       <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2039,24 +2063,33 @@
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="2">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2">
         <v>551</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2074,24 +2107,33 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="2">
+        <v>120</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2109,24 +2151,33 @@
         <v>7320000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="2">
+        <v>120</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2">
         <v>551</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2144,16 +2195,25 @@
         <v>300000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="2">
+        <v>120</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2">
         <v>551</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2174,19 +2234,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2194,22 +2254,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2217,22 +2277,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2240,22 +2300,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2273,22 +2333,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2299,19 +2359,19 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2322,19 +2382,19 @@
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2342,22 +2402,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2368,19 +2428,19 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2388,22 +2448,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2414,19 +2474,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2437,19 +2497,19 @@
         <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2460,19 +2520,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,9 +19,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="162">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="165">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00820005地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00830001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00830007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06810000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06820000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06850000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06860000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06920000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06930000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06940000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06990000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段01240007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉龍蛟段工業小段00390000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉新店段19160000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷岸腳段15570000</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸脚段17060000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷岸腳段17080000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷岸腳段17090000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段17100000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷岸腳段17150000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉下潭段00170009地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子脚段05950001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970002地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970015地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大埔鄉埔北段09630000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大埔鄉埔北段09640000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大埔鄉埔北段09650000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷新店段19440000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉義竹段04070004地號</t>
+  </si>
+  <si>
+    <t>10000分之241</t>
+  </si>
+  <si>
+    <t>4240分之77</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>12720分之976</t>
+  </si>
+  <si>
+    <t>12720分之231</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>184分之36</t>
+  </si>
+  <si>
+    <t>全部*</t>
+  </si>
+  <si>
+    <t>4分之3</t>
+  </si>
+  <si>
+    <t>298分之66</t>
+  </si>
+  <si>
+    <t>翁重鈞</t>
+  </si>
+  <si>
+    <t>翁動</t>
+  </si>
+  <si>
+    <t>翁尊鈞</t>
+  </si>
+  <si>
+    <t>翁霉鈞</t>
+  </si>
+  <si>
+    <t>翁重釣</t>
+  </si>
+  <si>
+    <t>翁重麵1</t>
+  </si>
+  <si>
+    <t>翁張宗美</t>
+  </si>
+  <si>
+    <t>87年06月03日</t>
+  </si>
+  <si>
+    <t>87年09月17日</t>
+  </si>
+  <si>
+    <t>80年12月16日</t>
+  </si>
+  <si>
+    <t>88年07月13日</t>
+  </si>
+  <si>
+    <t>88年07月13曰</t>
+  </si>
+  <si>
+    <t>88年08月23日</t>
+  </si>
+  <si>
+    <t>96年08月27日</t>
+  </si>
+  <si>
+    <t>74年10月18日</t>
+  </si>
+  <si>
+    <t>70年06月18日</t>
+  </si>
+  <si>
+    <t>78年06月</t>
+  </si>
+  <si>
+    <t>80年07月24日</t>
+  </si>
+  <si>
+    <t>75年05月13曰</t>
+  </si>
+  <si>
+    <t>96年09月04日</t>
+  </si>
+  <si>
+    <t>77年06月28日</t>
+  </si>
+  <si>
+    <t>79年03月14日</t>
+  </si>
+  <si>
+    <t>81年08月24日</t>
+  </si>
+  <si>
+    <t>90年07月25日</t>
+  </si>
+  <si>
+    <t>93年06月28日</t>
+  </si>
+  <si>
+    <t>100年07月01曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmp22571</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,259 +312,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區中正段三小段 0082-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 0083-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 0083-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0681 -0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0682-0000 '地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0685-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0686-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0692-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0693-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0694-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0699-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段0124-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蛟段工業小段 0039-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉新店段1916-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷岸腳段1557-0000</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸脚段1706-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷岸腳段1708-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷岸腳段1709-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段1710-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷岸腳段1715-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉下潭段0017-0009 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子脚段 0595-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0015 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大埔鄉埔北段0963-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大埔鄉埔北段0964-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大埔鄉埔北段0965-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷新店段1944-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉義竹段0407-0004 地號</t>
-  </si>
-  <si>
-    <t>10000分之 241</t>
-  </si>
-  <si>
-    <t>4240分之 77</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>12720分之 976</t>
-  </si>
-  <si>
-    <t>12720分之 231</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>184分之36</t>
-  </si>
-  <si>
-    <t>全部 *</t>
-  </si>
-  <si>
-    <t>4分之3</t>
-  </si>
-  <si>
-    <t>298分之66</t>
-  </si>
-  <si>
-    <t>翁重鈞</t>
-  </si>
-  <si>
-    <t>翁動</t>
-  </si>
-  <si>
-    <t>翁尊鈞</t>
-  </si>
-  <si>
-    <t>翁霉鈞</t>
-  </si>
-  <si>
-    <t>翁重釣</t>
-  </si>
-  <si>
-    <t>翁重麵1</t>
-  </si>
-  <si>
-    <t>翁張宗美</t>
-  </si>
-  <si>
-    <t>87年06月 03日</t>
-  </si>
-  <si>
-    <t>87年09月 17日</t>
-  </si>
-  <si>
-    <t>80年12月 16日</t>
-  </si>
-  <si>
-    <t>88年07月 13日</t>
-  </si>
-  <si>
-    <t>88年07月 13曰</t>
-  </si>
-  <si>
-    <t>88年08月 23日</t>
-  </si>
-  <si>
-    <t>96年08月 27日</t>
-  </si>
-  <si>
-    <t>74年10月 18日</t>
-  </si>
-  <si>
-    <t>70年06月 18日</t>
-  </si>
-  <si>
-    <t>78年06月</t>
-  </si>
-  <si>
-    <t>80年07月 24日</t>
-  </si>
-  <si>
-    <t>75年05月 13曰</t>
-  </si>
-  <si>
-    <t>96年09月 04日</t>
-  </si>
-  <si>
-    <t>77年06月 28日</t>
-  </si>
-  <si>
-    <t>79年03月 14日</t>
-  </si>
-  <si>
-    <t>81年08月 24日</t>
-  </si>
-  <si>
-    <t>90年07月 25日</t>
-  </si>
-  <si>
-    <t>93年06月 28日</t>
-  </si>
-  <si>
-    <t>100 年 07 月01曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年）'</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 00404-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蛟段工業小段 00065-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段00019-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段00029-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段01558-000 建號</t>
+    <t>臺北市中正區中正段三小段00404000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉龍蛟段工業小段00065000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段00019000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
   </si>
   <si>
     <t>嘉義縣義竹鄉未編號</t>
   </si>
   <si>
-    <t>87年09月 17曰</t>
-  </si>
-  <si>
-    <t>98年02月 10日</t>
-  </si>
-  <si>
-    <t>100 年 07 月15曰</t>
+    <t>87年09月17曰</t>
+  </si>
+  <si>
+    <t>98年02月10日</t>
+  </si>
+  <si>
+    <t>100年07月15曰</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>(超過五年，險 台）</t>
+    <t>(超過五年險台）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -312,7 +360,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行景美分 行</t>
+    <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -324,12 +372,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -342,27 +384,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -378,15 +399,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-23</t>
-  </si>
-  <si>
-    <t>tmp22571</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -414,22 +426,22 @@
     <t>习习浪不夫</t>
   </si>
   <si>
-    <t>臺灣銀行世貿分行 臺北市松山區論路</t>
-  </si>
-  <si>
-    <t>曰盛證券(為銶德、穎台公司 融資股票貸款） 臺北市中山區南京東路</t>
-  </si>
-  <si>
-    <t>曰盛證券(綠能融資） 臺it市中山區南京東路</t>
-  </si>
-  <si>
-    <t>95年11月 16日</t>
-  </si>
-  <si>
-    <t>97年03月 02日</t>
-  </si>
-  <si>
-    <t>100年07月 04日</t>
+    <t>臺灣銀行世貿分行臺北市松山區論路</t>
+  </si>
+  <si>
+    <t>曰盛證券(為銶德穎台公司融資股票貸款）臺北市中山區南京東路</t>
+  </si>
+  <si>
+    <t>曰盛證券(綠能融資）臺it市中山區南京東路</t>
+  </si>
+  <si>
+    <t>95年11月16日</t>
+  </si>
+  <si>
+    <t>97年03月02日</t>
+  </si>
+  <si>
+    <t>100年07月04日</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -471,34 +483,31 @@
     <t>宏遠証券(股)公司</t>
   </si>
   <si>
-    <t>嘉義縣義竹鄉龍蚊村義工三 路10號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蛟村義工三 路10號</t>
-  </si>
-  <si>
-    <t>臺北市大安區忠孝東路四段 230號5樓</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蛟村義工三 路10號，</t>
+    <t>嘉義縣義竹鄉龍蚊村義工三路10號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉龍蛟村義工三路10號</t>
+  </si>
+  <si>
+    <t>臺北市大安區忠孝東路四段230號5樓</t>
   </si>
   <si>
     <t>臺北市信義路四段236號3F</t>
   </si>
   <si>
-    <t>• 3,000,000</t>
-  </si>
-  <si>
-    <t>86年09月 30日</t>
-  </si>
-  <si>
-    <t>85年02月 05日</t>
-  </si>
-  <si>
-    <t>74年03月 26日</t>
-  </si>
-  <si>
-    <t>94年09月 06日</t>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>86年09月30日</t>
+  </si>
+  <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>74年03月26日</t>
+  </si>
+  <si>
+    <t>94年09月06日</t>
   </si>
   <si>
     <t>99年</t>
@@ -863,13 +872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,837 +900,1530 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2">
+        <v>551</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>727</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2">
+        <v>551</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>735</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>551</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>909.01</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2">
+        <v>551</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="2">
+        <v>551</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>299.99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="2">
+        <v>551</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>17.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="2">
+        <v>551</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>45.21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="2">
+        <v>551</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>8.01</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="2">
+        <v>551</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>645.03</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="2">
+        <v>551</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>141.65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="2">
+        <v>551</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>2432</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2">
         <v>4377528</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2">
+        <v>551</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>2089</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="2">
+        <v>551</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>3915</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="2">
+        <v>551</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>622</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="2">
+        <v>551</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="2">
+        <v>551</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="2">
+        <v>551</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="2">
+        <v>551</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="2">
+        <v>551</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="2">
+        <v>551</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H22" s="2">
         <v>100772</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="2">
+        <v>551</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="2">
+        <v>551</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="2">
+        <v>551</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="2">
+        <v>551</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="2">
+        <v>551</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="2">
+        <v>551</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>1221.37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="2">
+        <v>551</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>252.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2">
+        <v>551</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>159.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="2">
+        <v>551</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>3000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" s="2">
         <v>1350000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="2">
+        <v>551</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>141.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2">
         <v>138900</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="2">
+        <v>551</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>334.6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2">
         <v>42500</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" s="2">
+        <v>551</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1739,25 +2441,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1765,25 +2467,25 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>150.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1791,25 +2493,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>1120.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1817,22 +2519,22 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>366.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2">
         <v>440200</v>
@@ -1843,22 +2545,22 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>142.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2">
         <v>2738900</v>
@@ -1869,22 +2571,22 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <v>93.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2">
         <v>166000</v>
@@ -1895,22 +2597,22 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
         <v>226.4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2">
         <v>245400</v>
@@ -1931,19 +2633,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1951,16 +2653,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2">
         <v>250823</v>
@@ -1971,16 +2673,16 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2">
         <v>1031187</v>
@@ -2001,43 +2703,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2045,10 +2747,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
         <v>200000</v>
@@ -2057,28 +2759,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N2" s="2">
         <v>89</v>
@@ -2089,10 +2791,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>20000</v>
@@ -2101,28 +2803,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2">
         <v>551</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N3" s="2">
         <v>90</v>
@@ -2133,10 +2835,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
         <v>732000</v>
@@ -2145,28 +2847,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
         <v>7320000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2">
         <v>551</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2">
         <v>91</v>
@@ -2177,10 +2879,10 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -2189,28 +2891,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2">
         <v>300000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2">
         <v>551</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2">
         <v>92</v>
@@ -2231,22 +2933,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2254,22 +2956,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2277,22 +2979,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2300,22 +3002,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2333,22 +3035,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2356,22 +3058,22 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2379,22 +3081,22 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2402,22 +3104,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2425,22 +3127,22 @@
         <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2448,22 +3150,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2471,22 +3173,22 @@
         <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2494,22 +3196,22 @@
         <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2517,22 +3219,22 @@
         <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市中正區中正段三小段00820005地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中正區中正段三小段00830001地號</t>
@@ -210,9 +213,6 @@
     <t>翁張宗美</t>
   </si>
   <si>
-    <t>87年06月03日</t>
-  </si>
-  <si>
     <t>87年09月17日</t>
   </si>
   <si>
@@ -291,30 +291,15 @@
     <t>tmp22571</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市中正區中正段三小段00404000建號</t>
   </si>
   <si>
+    <t>87年09月17曰</t>
+  </si>
+  <si>
+    <t>(超過五年險台）</t>
+  </si>
+  <si>
     <t>嘉義縣義竹鄉龍蛟段工業小段00065000建號</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>嘉義縣義竹鄉未編號</t>
   </si>
   <si>
-    <t>87年09月17曰</t>
-  </si>
-  <si>
     <t>98年02月10日</t>
   </si>
   <si>
@@ -342,36 +324,18 @@
     <t>新建</t>
   </si>
   <si>
-    <t>(超過五年險台）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -381,12 +345,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>東麗紙業</t>
-  </si>
-  <si>
     <t>兆赫電子</t>
   </si>
   <si>
@@ -399,75 +357,57 @@
     <t>stock</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押權</t>
   </si>
   <si>
+    <t>翁童鈞</t>
+  </si>
+  <si>
+    <t>臺灣銀行世貿分行臺北市松山區論路</t>
+  </si>
+  <si>
+    <t>95年11月16日</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
     <t>股票質押</t>
   </si>
   <si>
-    <t>翁童鈞</t>
-  </si>
-  <si>
     <t>习习浪不夫</t>
   </si>
   <si>
-    <t>臺灣銀行世貿分行臺北市松山區論路</t>
-  </si>
-  <si>
     <t>曰盛證券(為銶德穎台公司融資股票貸款）臺北市中山區南京東路</t>
   </si>
   <si>
     <t>曰盛證券(綠能融資）臺it市中山區南京東路</t>
   </si>
   <si>
-    <t>95年11月16日</t>
-  </si>
-  <si>
     <t>97年03月02日</t>
   </si>
   <si>
     <t>100年07月04日</t>
   </si>
   <si>
-    <t>房屋貸款</t>
-  </si>
-  <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
+    <t>五王糧食股份有限公司</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉龍蚊村義工三路10號</t>
+  </si>
+  <si>
+    <t>86年09月30日</t>
+  </si>
+  <si>
+    <t>投資</t>
   </si>
   <si>
     <t>翁重韵</t>
   </si>
   <si>
-    <t>五王糧食股份有限公司</t>
-  </si>
-  <si>
     <t>玉豐糧食股份有限公司</t>
   </si>
   <si>
@@ -483,9 +423,6 @@
     <t>宏遠証券(股)公司</t>
   </si>
   <si>
-    <t>嘉義縣義竹鄉龍蚊村義工三路10號</t>
-  </si>
-  <si>
     <t>嘉義縣義竹鄉龍蛟村義工三路10號</t>
   </si>
   <si>
@@ -498,9 +435,6 @@
     <t>3000000</t>
   </si>
   <si>
-    <t>86年09月30日</t>
-  </si>
-  <si>
     <t>85年02月05日</t>
   </si>
   <si>
@@ -511,9 +445,6 @@
   </si>
   <si>
     <t>99年</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -872,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,25 +852,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>17</v>
+        <v>727</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>82</v>
@@ -957,7 +894,7 @@
         <v>88</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2">
         <v>551</v>
@@ -966,24 +903,30 @@
         <v>89</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0241</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>17.5207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -1004,7 +947,7 @@
         <v>88</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" s="2">
         <v>551</v>
@@ -1013,30 +956,36 @@
         <v>89</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0241</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>17.7135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>735</v>
+        <v>909.01</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>85</v>
@@ -1051,7 +1000,7 @@
         <v>88</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2">
         <v>551</v>
@@ -1060,27 +1009,33 @@
         <v>89</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0181603773584906</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>16.5079646226415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>909.01</v>
+        <v>424</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
@@ -1098,7 +1053,7 @@
         <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="2">
         <v>551</v>
@@ -1107,27 +1062,33 @@
         <v>89</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>424</v>
+        <v>299.99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>83</v>
@@ -1145,7 +1106,7 @@
         <v>88</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" s="2">
         <v>551</v>
@@ -1154,24 +1115,30 @@
         <v>89</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>29.999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>299.99</v>
+        <v>17.38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>67</v>
@@ -1192,7 +1159,7 @@
         <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2">
         <v>551</v>
@@ -1201,24 +1168,30 @@
         <v>89</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>17.38</v>
+        <v>45.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>67</v>
@@ -1239,7 +1212,7 @@
         <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2">
         <v>551</v>
@@ -1248,24 +1221,30 @@
         <v>89</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>45.21</v>
+        <v>8.01</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>67</v>
@@ -1286,7 +1265,7 @@
         <v>88</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="2">
         <v>551</v>
@@ -1295,27 +1274,33 @@
         <v>89</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>8.01</v>
+        <v>645.03</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>83</v>
@@ -1333,7 +1318,7 @@
         <v>88</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2">
         <v>551</v>
@@ -1342,24 +1327,30 @@
         <v>89</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0767295597484277</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>49.4928679245283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>645.03</v>
+        <v>141.65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>68</v>
@@ -1380,7 +1371,7 @@
         <v>88</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2">
         <v>551</v>
@@ -1389,33 +1380,39 @@
         <v>89</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0181603773584906</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.57241745283019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>141.65</v>
+        <v>2432</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
+      <c r="H12" s="2">
+        <v>4377528</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>86</v>
@@ -1427,7 +1424,7 @@
         <v>88</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="2">
         <v>551</v>
@@ -1436,33 +1433,39 @@
         <v>89</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2432</v>
+        <v>2089</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="2">
-        <v>4377528</v>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>86</v>
@@ -1474,7 +1477,7 @@
         <v>88</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" s="2">
         <v>551</v>
@@ -1483,27 +1486,33 @@
         <v>89</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>2089</v>
+        <v>3915</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>83</v>
@@ -1521,7 +1530,7 @@
         <v>88</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14" s="2">
         <v>551</v>
@@ -1530,27 +1539,33 @@
         <v>89</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>3915</v>
+        <v>622</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>83</v>
@@ -1568,7 +1583,7 @@
         <v>88</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="2">
         <v>551</v>
@@ -1577,18 +1592,24 @@
         <v>89</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>207.333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>622</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>51</v>
@@ -1597,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>83</v>
@@ -1615,7 +1636,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" s="2">
         <v>551</v>
@@ -1624,27 +1645,33 @@
         <v>89</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>83</v>
@@ -1662,7 +1689,7 @@
         <v>88</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="2">
         <v>551</v>
@@ -1671,24 +1698,30 @@
         <v>89</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>74</v>
@@ -1709,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="2">
         <v>551</v>
@@ -1718,27 +1751,33 @@
         <v>89</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>83</v>
@@ -1756,7 +1795,7 @@
         <v>88</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="2">
         <v>551</v>
@@ -1765,24 +1804,30 @@
         <v>89</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>73</v>
@@ -1803,7 +1848,7 @@
         <v>88</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="2">
         <v>551</v>
@@ -1812,33 +1857,39 @@
         <v>89</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>85</v>
+      <c r="H21" s="2">
+        <v>100772</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>86</v>
@@ -1850,7 +1901,7 @@
         <v>88</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="2">
         <v>551</v>
@@ -1859,33 +1910,39 @@
         <v>89</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.195652173913043</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="2">
-        <v>100772</v>
+      <c r="H22" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>86</v>
@@ -1897,7 +1954,7 @@
         <v>88</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" s="2">
         <v>551</v>
@@ -1906,27 +1963,33 @@
         <v>89</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>83</v>
@@ -1944,7 +2007,7 @@
         <v>88</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" s="2">
         <v>551</v>
@@ -1953,24 +2016,30 @@
         <v>89</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>77</v>
@@ -1991,7 +2060,7 @@
         <v>88</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" s="2">
         <v>551</v>
@@ -2000,27 +2069,33 @@
         <v>89</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>83</v>
@@ -2038,7 +2113,7 @@
         <v>88</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M25" s="2">
         <v>551</v>
@@ -2047,24 +2122,30 @@
         <v>89</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>76</v>
@@ -2085,39 +2166,45 @@
         <v>88</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="2">
+        <v>551</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="2">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1221.37</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="2">
-        <v>551</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>85</v>
@@ -2132,36 +2219,42 @@
         <v>88</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="2">
+        <v>551</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="2">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>270.504765100671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>252.6</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="2">
-        <v>551</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1221.37</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>84</v>
@@ -2179,36 +2272,42 @@
         <v>88</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="2">
+        <v>551</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>55.944966442953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>159.25</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="2">
-        <v>551</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>252.6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>84</v>
@@ -2226,7 +2325,7 @@
         <v>88</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M29" s="2">
         <v>551</v>
@@ -2235,33 +2334,39 @@
         <v>89</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>35.2701342281879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="2">
-        <v>159.25</v>
+        <v>3000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>85</v>
+      <c r="H30" s="2">
+        <v>1350000</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>86</v>
@@ -2273,7 +2378,7 @@
         <v>88</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M30" s="2">
         <v>551</v>
@@ -2282,33 +2387,39 @@
         <v>89</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="2">
-        <v>3000</v>
+        <v>141.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2">
-        <v>1350000</v>
+        <v>138900</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>86</v>
@@ -2320,7 +2431,7 @@
         <v>88</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M31" s="2">
         <v>551</v>
@@ -2329,24 +2440,30 @@
         <v>89</v>
       </c>
       <c r="O31" s="2">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="2">
-        <v>141.5</v>
+        <v>334.6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>81</v>
@@ -2355,7 +2472,7 @@
         <v>83</v>
       </c>
       <c r="H32" s="2">
-        <v>138900</v>
+        <v>42500</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>86</v>
@@ -2367,7 +2484,7 @@
         <v>88</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M32" s="2">
         <v>551</v>
@@ -2376,54 +2493,13 @@
         <v>89</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
         <v>334.6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="2">
-        <v>42500</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="2">
-        <v>551</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="2">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2443,178 +2519,152 @@
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>150.4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
-        <v>150.4</v>
+        <v>1120.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2">
-        <v>1120.7</v>
+        <v>366.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="H3" s="2">
+        <v>440200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
-        <v>366.3</v>
+        <v>142.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H4" s="2">
-        <v>440200</v>
+        <v>2738900</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2">
-        <v>142.5</v>
+        <v>93.21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="2">
-        <v>2738900</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2">
-        <v>93.21</v>
+        <v>226.4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="2">
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2">
-        <v>226.4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="2">
         <v>245400</v>
       </c>
     </row>
@@ -2625,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2633,58 +2683,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>63</v>
+      </c>
+      <c r="F1" s="1">
+        <v>250823</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2">
-        <v>250823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2">
         <v>1031187</v>
       </c>
     </row>
@@ -2695,7 +2725,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2709,16 +2739,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2744,28 +2774,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>87</v>
@@ -2774,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
@@ -2783,33 +2813,33 @@
         <v>89</v>
       </c>
       <c r="N2" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>732000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2">
-        <v>200000</v>
+        <v>7320000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>87</v>
@@ -2818,7 +2848,7 @@
         <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2">
         <v>551</v>
@@ -2827,33 +2857,33 @@
         <v>89</v>
       </c>
       <c r="N3" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
-        <v>732000</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2">
-        <v>7320000</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>87</v>
@@ -2862,7 +2892,7 @@
         <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2">
         <v>551</v>
@@ -2871,50 +2901,6 @@
         <v>89</v>
       </c>
       <c r="N4" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="2">
-        <v>300000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="2">
-        <v>551</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2925,7 +2911,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2933,91 +2919,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="E1" s="1">
+        <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
-        <v>15000000</v>
+        <v>4898000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
-        <v>4898000</v>
+        <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +2990,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3035,206 +2998,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
+      </c>
+      <c r="E1" s="1">
+        <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
-        <v>35800000</v>
+        <v>10000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10000000</v>
+        <v>125</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>158</v>
+      <c r="E4" s="2">
+        <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2">
-        <v>1000000</v>
+        <v>84000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2">
-        <v>84000</v>
+        <v>95198</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2">
-        <v>95198</v>
+        <v>32700000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2">
-        <v>32700000</v>
+        <v>1120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1120</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中正區中正段三小段00820005地號</t>
+  </si>
+  <si>
     <t>臺北市中正區中正段三小段00830001地號</t>
   </si>
   <si>
@@ -213,6 +216,9 @@
     <t>翁張宗美</t>
   </si>
   <si>
+    <t>87年06月03日</t>
+  </si>
+  <si>
     <t>87年09月17日</t>
   </si>
   <si>
@@ -294,36 +300,36 @@
     <t>臺北市中正區中正段三小段00404000建號</t>
   </si>
   <si>
+    <t>嘉義縣義竹鄉龍蛟段工業小段00065000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段00019000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉未編號</t>
+  </si>
+  <si>
     <t>87年09月17曰</t>
   </si>
   <si>
+    <t>98年02月10日</t>
+  </si>
+  <si>
+    <t>100年07月15曰</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>(超過五年險台）</t>
   </si>
   <si>
-    <t>嘉義縣義竹鄉龍蛟段工業小段00065000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段00019000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉未編號</t>
-  </si>
-  <si>
-    <t>98年02月10日</t>
-  </si>
-  <si>
-    <t>100年07月15曰</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
@@ -343,6 +349,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>東麗紙業</t>
   </si>
   <si>
     <t>兆赫電子</t>
@@ -803,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,119 +870,119 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>727</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="2">
         <v>551</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.0241</v>
       </c>
       <c r="Q2" s="2">
-        <v>17.5207</v>
+        <v>0.4097</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2">
         <v>551</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0241</v>
       </c>
       <c r="Q3" s="2">
-        <v>17.7135</v>
+        <v>17.5207</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>909.01</v>
+        <v>735</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
@@ -982,369 +991,369 @@
         <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" s="2">
         <v>551</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0181603773584906</v>
+        <v>0.0241</v>
       </c>
       <c r="Q4" s="2">
-        <v>16.5079646226415</v>
+        <v>17.7135</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>424</v>
+        <v>909.01</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2">
         <v>551</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1</v>
+        <v>0.0181603773584906</v>
       </c>
       <c r="Q5" s="2">
-        <v>42.4</v>
+        <v>16.5079646226415</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>299.99</v>
+        <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2">
         <v>551</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.1</v>
       </c>
       <c r="Q6" s="2">
-        <v>29.999</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>17.38</v>
+        <v>299.99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2">
         <v>551</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.738</v>
+        <v>29.999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>45.21</v>
+        <v>17.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="2">
         <v>551</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.1</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.521</v>
+        <v>1.738</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>8.01</v>
+        <v>45.21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2">
         <v>551</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.1</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.801</v>
+        <v>4.521</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>645.03</v>
+        <v>8.01</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2">
         <v>551</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0767295597484277</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="2">
-        <v>49.4928679245283</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>141.65</v>
+        <v>645.03</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -1353,210 +1362,210 @@
         <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="2">
         <v>551</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0181603773584906</v>
+        <v>0.0767295597484277</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.57241745283019</v>
+        <v>49.4928679245283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>2432</v>
+        <v>141.65</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4377528</v>
+        <v>85</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2">
         <v>551</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0.0181603773584906</v>
       </c>
       <c r="Q12" s="2">
-        <v>2432</v>
+        <v>2.57241745283019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2089</v>
+        <v>2432</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="H13" s="2">
+        <v>4377528</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
         <v>551</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>2089</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>3915</v>
+        <v>2089</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="2">
         <v>551</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>3915</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>622</v>
+        <v>3915</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -1565,940 +1574,993 @@
         <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2">
         <v>551</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>207.333333333333</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>36</v>
+        <v>622</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2">
         <v>551</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>36</v>
+        <v>207.333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17" s="2">
         <v>551</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M18" s="2">
         <v>551</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>302</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M19" s="2">
         <v>551</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="2">
         <v>551</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="2">
-        <v>100772</v>
+        <v>85</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="2">
         <v>551</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
-        <v>0.195652173913043</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="H22" s="2">
+        <v>100772</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M22" s="2">
         <v>551</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Q22" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M23" s="2">
         <v>551</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M24" s="2">
         <v>551</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q24" s="2">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M25" s="2">
         <v>551</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M26" s="2">
         <v>551</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>1221.37</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="2">
         <v>551</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
-        <v>0.221476510067114</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>270.504765100671</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>252.6</v>
+        <v>1221.37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M28" s="2">
         <v>551</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
         <v>0.221476510067114</v>
       </c>
       <c r="Q28" s="2">
-        <v>55.944966442953</v>
+        <v>270.504765100671</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>159.25</v>
+        <v>252.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M29" s="2">
         <v>551</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
         <v>0.221476510067114</v>
       </c>
       <c r="Q29" s="2">
-        <v>35.2701342281879</v>
+        <v>55.944966442953</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>3000</v>
+        <v>159.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1350000</v>
+        <v>86</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M30" s="2">
         <v>551</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0.221476510067114</v>
       </c>
       <c r="Q30" s="2">
-        <v>3000</v>
+        <v>35.2701342281879</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>141.5</v>
+        <v>3000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2">
-        <v>138900</v>
+        <v>1350000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M31" s="2">
         <v>551</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O31" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>141.5</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>334.6</v>
+        <v>141.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2">
-        <v>42500</v>
+        <v>138900</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M32" s="2">
         <v>551</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O32" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <v>334.6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="2">
+        <v>42500</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="2">
+        <v>551</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>334.6</v>
       </c>
     </row>
@@ -2509,163 +2571,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2">
         <v>150.4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2">
+        <v>551</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>1120.7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2">
+        <v>551</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1120.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2">
+        <v>366.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="H4" s="2">
+        <v>440200</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="2">
+        <v>551</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="2">
         <v>55</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>366.3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="2">
-        <v>440200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>56</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>142.5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2738900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2">
-        <v>93.21</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2738900</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="2">
+        <v>551</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="2">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2">
+        <v>93.21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="2">
+        <v>166000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="2">
+        <v>551</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="2">
+        <v>57</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>93.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="2">
+        <v>226.4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="2">
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="G7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="2">
+        <v>245400</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="2">
+        <v>551</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="2">
+        <v>58</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>226.4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="2">
-        <v>245400</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2952,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2683,16 +2960,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1">
         <v>250823</v>
@@ -2700,21 +2977,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2">
+        <v>250823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2">
         <v>1031187</v>
       </c>
     </row>
@@ -2725,7 +3022,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2739,13 +3036,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2774,133 +3071,177 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2">
-        <v>732000</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2">
-        <v>7320000</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2">
         <v>551</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
-        <v>30000</v>
+        <v>732000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2">
+        <v>7320000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2">
         <v>300000</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2">
-        <v>551</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="H5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2">
+        <v>551</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2911,7 +3252,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2919,68 +3260,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4898000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4898000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>127</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="2">
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="2">
         <v>1000000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
+      <c r="F4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2990,7 +3354,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2998,183 +3362,206 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
-        <v>10000000</v>
+        <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1000000</v>
+        <v>128</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>136</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2">
-        <v>84000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2">
-        <v>95198</v>
+        <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
-        <v>32700000</v>
+        <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32700000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="2">
         <v>1120</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>127</v>
+      <c r="F9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>(超過五年險台）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行景美分行</t>
@@ -2653,7 +2656,7 @@
         <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>89</v>
@@ -2706,7 +2709,7 @@
         <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>89</v>
@@ -2759,7 +2762,7 @@
         <v>440200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>89</v>
@@ -2812,7 +2815,7 @@
         <v>2738900</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>89</v>
@@ -2865,7 +2868,7 @@
         <v>166000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>89</v>
@@ -2918,7 +2921,7 @@
         <v>245400</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>89</v>
@@ -2960,13 +2963,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
@@ -2980,13 +2983,13 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>64</v>
@@ -3000,13 +3003,13 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
@@ -3036,13 +3039,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3074,7 +3077,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
@@ -3086,13 +3089,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>89</v>
@@ -3118,7 +3121,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -3130,13 +3133,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>89</v>
@@ -3162,7 +3165,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
@@ -3174,13 +3177,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2">
         <v>7320000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>89</v>
@@ -3206,7 +3209,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -3218,13 +3221,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="2">
         <v>300000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>89</v>
@@ -3260,22 +3263,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3283,22 +3286,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3306,22 +3309,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3329,22 +3332,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3365,19 +3368,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3388,19 +3391,19 @@
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3411,19 +3414,19 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3431,22 +3434,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3457,19 +3460,19 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3477,22 +3480,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3503,19 +3506,19 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3526,19 +3529,19 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3549,19 +3552,19 @@
         <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -333,25 +333,34 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>東麗紙業</t>
@@ -2955,13 +2964,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2972,24 +2981,45 @@
         <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1">
-        <v>250823</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>64</v>
@@ -2997,25 +3027,67 @@
       <c r="F2" s="2">
         <v>250823</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2">
+        <v>551</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="2">
         <v>1031187</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2">
+        <v>551</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3039,13 +3111,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3077,7 +3149,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
@@ -3089,13 +3161,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>89</v>
@@ -3121,7 +3193,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -3133,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>89</v>
@@ -3165,7 +3237,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
@@ -3177,13 +3249,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2">
         <v>7320000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>89</v>
@@ -3209,7 +3281,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -3221,13 +3293,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2">
         <v>300000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>89</v>
@@ -3263,22 +3335,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3286,22 +3358,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3309,22 +3381,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3332,22 +3404,22 @@
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2">
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3368,19 +3440,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3391,19 +3463,19 @@
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3414,19 +3486,19 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3434,22 +3506,22 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3460,19 +3532,19 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3480,22 +3552,22 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3506,19 +3578,19 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3529,19 +3601,19 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3552,19 +3624,19 @@
         <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2011-11-23_財產申報表_tmp22571.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="154">
   <si>
     <t>name</t>
   </si>
@@ -378,94 +378,109 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押權</t>
   </si>
   <si>
+    <t>股票質押</t>
+  </si>
+  <si>
     <t>翁童鈞</t>
   </si>
   <si>
+    <t>习习浪不夫</t>
+  </si>
+  <si>
     <t>臺灣銀行世貿分行臺北市松山區論路</t>
   </si>
   <si>
+    <t>曰盛證券(為銶德穎台公司融資股票貸款）臺北市中山區南京東路</t>
+  </si>
+  <si>
+    <t>曰盛證券(綠能融資）臺it市中山區南京東路</t>
+  </si>
+  <si>
     <t>95年11月16日</t>
   </si>
   <si>
+    <t>97年03月02日</t>
+  </si>
+  <si>
+    <t>100年07月04日</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>股票質押</t>
-  </si>
-  <si>
-    <t>习习浪不夫</t>
-  </si>
-  <si>
-    <t>曰盛證券(為銶德穎台公司融資股票貸款）臺北市中山區南京東路</t>
-  </si>
-  <si>
-    <t>曰盛證券(綠能融資）臺it市中山區南京東路</t>
-  </si>
-  <si>
-    <t>97年03月02日</t>
-  </si>
-  <si>
-    <t>100年07月04日</t>
-  </si>
-  <si>
     <t>貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>翁重韵</t>
+  </si>
+  <si>
     <t>五王糧食股份有限公司</t>
   </si>
   <si>
+    <t>玉豐糧食股份有限公司</t>
+  </si>
+  <si>
+    <t>玉豐冷凍廠</t>
+  </si>
+  <si>
+    <t>群略投資股份有限公司</t>
+  </si>
+  <si>
+    <t>石干糧食(股)公司</t>
+  </si>
+  <si>
+    <t>宏遠証券(股)公司</t>
+  </si>
+  <si>
     <t>嘉義縣義竹鄉龍蚊村義工三路10號</t>
   </si>
   <si>
+    <t>嘉義縣義竹鄉龍蛟村義工三路10號</t>
+  </si>
+  <si>
+    <t>臺北市大安區忠孝東路四段230號5樓</t>
+  </si>
+  <si>
+    <t>臺北市信義路四段236號3F</t>
+  </si>
+  <si>
     <t>86年09月30日</t>
   </si>
   <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>74年03月26日</t>
+  </si>
+  <si>
+    <t>94年09月06日</t>
+  </si>
+  <si>
+    <t>99年</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>翁重韵</t>
-  </si>
-  <si>
-    <t>玉豐糧食股份有限公司</t>
-  </si>
-  <si>
-    <t>玉豐冷凍廠</t>
-  </si>
-  <si>
-    <t>群略投資股份有限公司</t>
-  </si>
-  <si>
-    <t>石干糧食(股)公司</t>
-  </si>
-  <si>
-    <t>宏遠証券(股)公司</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蛟村義工三路10號</t>
-  </si>
-  <si>
-    <t>臺北市大安區忠孝東路四段230號5樓</t>
-  </si>
-  <si>
-    <t>臺北市信義路四段236號3F</t>
-  </si>
-  <si>
-    <t>3000000</t>
-  </si>
-  <si>
-    <t>85年02月05日</t>
-  </si>
-  <si>
-    <t>74年03月26日</t>
-  </si>
-  <si>
-    <t>94年09月06日</t>
-  </si>
-  <si>
-    <t>99年</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3327,13 +3342,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>119</v>
       </c>
@@ -3341,50 +3356,92 @@
         <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2">
+        <v>551</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>126</v>
@@ -3393,18 +3450,39 @@
         <v>4898000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2">
+        <v>551</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
@@ -3416,10 +3494,31 @@
         <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3429,33 +3528,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1">
-        <v>35800000</v>
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>132</v>
       </c>
@@ -3463,22 +3583,43 @@
         <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2">
+        <v>551</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>133</v>
       </c>
@@ -3486,45 +3627,87 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2">
+        <v>551</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2">
         <v>133</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2">
+        <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>136</v>
       </c>
@@ -3532,45 +3715,87 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2">
+        <v>551</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2">
+        <v>551</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>138</v>
       </c>
@@ -3578,22 +3803,43 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2">
+        <v>551</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>139</v>
       </c>
@@ -3601,22 +3847,43 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>152</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2">
+        <v>551</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>140</v>
       </c>
@@ -3624,19 +3891,40 @@
         <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="2">
+        <v>551</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
